--- a/EC/Train Runs and Enforcements 2016-05-15.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2146,11 +2146,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2162,9 +2162,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2186,30 +2189,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2529,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R140" sqref="R140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162:O162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15991,28 +15970,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155:P155 A3:R154">
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="7" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="6" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q155:R155">
-    <cfRule type="expression" dxfId="10" priority="76">
+    <cfRule type="expression" dxfId="5" priority="76">
       <formula>$P155&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="77">
+    <cfRule type="expression" dxfId="4" priority="77">
       <formula>$O174&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16044,8 +16023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18110,17 +18089,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:L28 N27:N28 B47:N48 B3:N26 B46:L46 N46 M4:M46">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18175,7 +18154,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/EC/Train Runs and Enforcements 2016-05-15.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-15.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1628,9 +1628,6 @@
     <t>TMDS Issues between 20:30-22:00</t>
   </si>
   <si>
-    <t>Routing @ Sable and at EC0816RH 81-1T 1S (probably another train ahead)</t>
-  </si>
-  <si>
     <t>Full service application commanded by a different system (not PTC). Looks like train ran in ATC to keep schedule.</t>
   </si>
   <si>
@@ -1656,6 +1653,9 @@
   </si>
   <si>
     <t>Aspect was STOP &amp; PROCEED the entire time. Over 1 min of warning given.</t>
+  </si>
+  <si>
+    <t>Operational traffic issue - delayed by train ahead</t>
   </si>
 </sst>
 </file>
@@ -2508,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162:O162"/>
+    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,7 +3010,7 @@
         <v>522</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="T6" s="74" t="str">
         <f t="shared" si="11"/>
@@ -3260,7 +3260,7 @@
         <v>522</v>
       </c>
       <c r="R9" s="62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T9" s="74" t="str">
         <f t="shared" si="11"/>
@@ -4521,10 +4521,10 @@
         <v>27.533333336468786</v>
       </c>
       <c r="Q24" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R24" s="62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T24" s="74" t="str">
         <f t="shared" si="19"/>
@@ -4864,7 +4864,7 @@
         <v>522</v>
       </c>
       <c r="R28" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T28" s="74" t="str">
         <f t="shared" si="19"/>
@@ -11245,10 +11245,10 @@
         <v>6.6333333333022892</v>
       </c>
       <c r="Q104" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R104" s="62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T104" s="74" t="str">
         <f t="shared" si="28"/>
@@ -12005,10 +12005,10 @@
         <v>40.433333334513009</v>
       </c>
       <c r="Q113" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R113" s="62" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="T113" s="74" t="str">
         <f t="shared" si="28"/>
@@ -14446,7 +14446,7 @@
         <v>522</v>
       </c>
       <c r="R142" s="62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T142" s="74" t="str">
         <f t="shared" si="28"/>
@@ -16023,7 +16023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16924,7 +16924,7 @@
         <v>99</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16969,7 +16969,7 @@
         <v>99</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -17014,7 +17014,7 @@
         <v>99</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
